--- a/pokemonData.xlsx
+++ b/pokemonData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Mesas Yélamos\NoPuedoBorrar\Escritorio\backend_login\appLogin_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E89C0CC-D467-4F80-96A9-3F8184CAA8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5153CFCF-EF4F-45A2-BCFA-373FC60D74E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="496">
   <si>
     <t>POKE01.jpg</t>
   </si>
@@ -1467,9 +1467,6 @@
     <t>speed</t>
   </si>
   <si>
-    <t>Volar</t>
-  </si>
-  <si>
     <t>100 km/s</t>
   </si>
   <si>
@@ -1486,13 +1483,46 @@
   </si>
   <si>
     <t>Venusaur is a large, amphibian-like Pokémon that is somewhat similar in appearance to its pre-evolved forms</t>
+  </si>
+  <si>
+    <t>Overgrow, chlorophyll</t>
+  </si>
+  <si>
+    <t>10 km/s</t>
+  </si>
+  <si>
+    <t>blaze,solar-power</t>
+  </si>
+  <si>
+    <t>20 km/s</t>
+  </si>
+  <si>
+    <t>50 km/s</t>
+  </si>
+  <si>
+    <t>80 km/s</t>
+  </si>
+  <si>
+    <t>30 km/s</t>
+  </si>
+  <si>
+    <t>40 km/s</t>
+  </si>
+  <si>
+    <t>60 km/s</t>
+  </si>
+  <si>
+    <t>70 km/s</t>
+  </si>
+  <si>
+    <t>90 km/s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1543,6 +1573,18 @@
       <sz val="8"/>
       <color rgb="FF3A3A3A"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6C741F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1602,7 +1644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1623,6 +1665,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1904,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4"/>
@@ -1922,7 +1965,7 @@
         <v>302</v>
       </c>
       <c r="B1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C1" t="s">
         <v>476</v>
@@ -1954,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>303</v>
@@ -1966,10 +2009,10 @@
         <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>469</v>
@@ -1978,7 +2021,7 @@
         <v>470</v>
       </c>
       <c r="J2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
@@ -1998,8 +2041,12 @@
       <c r="E3" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G3" t="s">
+        <v>488</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>472</v>
       </c>
@@ -2007,7 +2054,7 @@
         <v>471</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>2</v>
@@ -2027,8 +2074,12 @@
       <c r="E4" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" t="s">
+        <v>485</v>
+      </c>
+      <c r="G4" t="s">
+        <v>491</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>473</v>
       </c>
@@ -2036,7 +2087,7 @@
         <v>474</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>4</v>
@@ -2056,8 +2107,21 @@
       <c r="E5" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G5" t="s">
+        <v>492</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J5" t="s">
+        <v>482</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2076,8 +2140,21 @@
       <c r="E6" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G6" t="s">
+        <v>489</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2096,9 +2173,21 @@
       <c r="E7" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="J7" s="2"/>
+      <c r="F7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2117,8 +2206,21 @@
       <c r="E8" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" t="s">
+        <v>485</v>
+      </c>
+      <c r="G8" t="s">
+        <v>494</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J8" t="s">
+        <v>482</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2137,8 +2239,21 @@
       <c r="E9" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G9" t="s">
+        <v>490</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2157,8 +2272,21 @@
       <c r="E10" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" t="s">
+        <v>495</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2177,8 +2305,21 @@
       <c r="E11" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G11" t="s">
+        <v>479</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J11" t="s">
+        <v>482</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2197,6 +2338,21 @@
       <c r="E12" t="s">
         <v>316</v>
       </c>
+      <c r="F12" t="s">
+        <v>485</v>
+      </c>
+      <c r="G12" t="s">
+        <v>486</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2215,6 +2371,21 @@
       <c r="E13" t="s">
         <v>316</v>
       </c>
+      <c r="F13" t="s">
+        <v>485</v>
+      </c>
+      <c r="G13" t="s">
+        <v>488</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>62</v>
       </c>
@@ -2233,6 +2404,21 @@
       <c r="E14" t="s">
         <v>316</v>
       </c>
+      <c r="F14" t="s">
+        <v>485</v>
+      </c>
+      <c r="G14" t="s">
+        <v>491</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J14" t="s">
+        <v>482</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>84</v>
       </c>
@@ -2251,6 +2437,21 @@
       <c r="E15" t="s">
         <v>316</v>
       </c>
+      <c r="F15" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G15" t="s">
+        <v>492</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>106</v>
       </c>
@@ -2269,6 +2470,21 @@
       <c r="E16" t="s">
         <v>316</v>
       </c>
+      <c r="F16" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G16" t="s">
+        <v>489</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>128</v>
       </c>
@@ -2287,6 +2503,21 @@
       <c r="E17" t="s">
         <v>456</v>
       </c>
+      <c r="F17" t="s">
+        <v>485</v>
+      </c>
+      <c r="G17" t="s">
+        <v>493</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J17" t="s">
+        <v>482</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>130</v>
       </c>
@@ -2305,6 +2536,21 @@
       <c r="E18" t="s">
         <v>456</v>
       </c>
+      <c r="F18" t="s">
+        <v>485</v>
+      </c>
+      <c r="G18" t="s">
+        <v>494</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>132</v>
       </c>
@@ -2323,6 +2569,21 @@
       <c r="E19" t="s">
         <v>456</v>
       </c>
+      <c r="F19" t="s">
+        <v>485</v>
+      </c>
+      <c r="G19" t="s">
+        <v>490</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>134</v>
       </c>
@@ -2341,6 +2602,21 @@
       <c r="E20" t="s">
         <v>456</v>
       </c>
+      <c r="F20" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G20" t="s">
+        <v>495</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J20" t="s">
+        <v>482</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2359,6 +2635,21 @@
       <c r="E21" t="s">
         <v>456</v>
       </c>
+      <c r="F21" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G21" t="s">
+        <v>479</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>138</v>
       </c>
@@ -2377,6 +2668,21 @@
       <c r="E22" t="s">
         <v>456</v>
       </c>
+      <c r="F22" t="s">
+        <v>485</v>
+      </c>
+      <c r="G22" t="s">
+        <v>486</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>140</v>
       </c>
@@ -2395,6 +2701,21 @@
       <c r="E23" t="s">
         <v>456</v>
       </c>
+      <c r="F23" t="s">
+        <v>485</v>
+      </c>
+      <c r="G23" t="s">
+        <v>488</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J23" t="s">
+        <v>482</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>142</v>
       </c>
@@ -2413,6 +2734,21 @@
       <c r="E24" t="s">
         <v>457</v>
       </c>
+      <c r="F24" t="s">
+        <v>485</v>
+      </c>
+      <c r="G24" t="s">
+        <v>491</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>144</v>
       </c>
@@ -2431,6 +2767,21 @@
       <c r="E25" t="s">
         <v>457</v>
       </c>
+      <c r="F25" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G25" t="s">
+        <v>492</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>146</v>
       </c>
@@ -2449,6 +2800,21 @@
       <c r="E26" t="s">
         <v>458</v>
       </c>
+      <c r="F26" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G26" t="s">
+        <v>489</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J26" t="s">
+        <v>482</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>148</v>
       </c>
@@ -2467,6 +2833,21 @@
       <c r="E27" t="s">
         <v>458</v>
       </c>
+      <c r="F27" t="s">
+        <v>485</v>
+      </c>
+      <c r="G27" t="s">
+        <v>493</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>150</v>
       </c>
@@ -2485,6 +2866,21 @@
       <c r="E28" t="s">
         <v>459</v>
       </c>
+      <c r="F28" t="s">
+        <v>485</v>
+      </c>
+      <c r="G28" t="s">
+        <v>494</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>152</v>
       </c>
@@ -2503,6 +2899,21 @@
       <c r="E29" t="s">
         <v>459</v>
       </c>
+      <c r="F29" t="s">
+        <v>485</v>
+      </c>
+      <c r="G29" t="s">
+        <v>490</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J29" t="s">
+        <v>482</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>154</v>
       </c>
@@ -2521,6 +2932,21 @@
       <c r="E30" t="s">
         <v>457</v>
       </c>
+      <c r="F30" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G30" t="s">
+        <v>495</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K30" s="1" t="s">
         <v>156</v>
       </c>
@@ -2539,6 +2965,21 @@
       <c r="E31" t="s">
         <v>457</v>
       </c>
+      <c r="F31" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G31" t="s">
+        <v>479</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>158</v>
       </c>
@@ -2557,6 +2998,21 @@
       <c r="E32" t="s">
         <v>457</v>
       </c>
+      <c r="F32" t="s">
+        <v>485</v>
+      </c>
+      <c r="G32" t="s">
+        <v>486</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J32" t="s">
+        <v>482</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>160</v>
       </c>
@@ -2575,6 +3031,21 @@
       <c r="E33" t="s">
         <v>457</v>
       </c>
+      <c r="F33" t="s">
+        <v>485</v>
+      </c>
+      <c r="G33" t="s">
+        <v>488</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K33" s="1" t="s">
         <v>162</v>
       </c>
@@ -2593,6 +3064,21 @@
       <c r="E34" t="s">
         <v>457</v>
       </c>
+      <c r="F34" t="s">
+        <v>485</v>
+      </c>
+      <c r="G34" t="s">
+        <v>491</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K34" s="1" t="s">
         <v>164</v>
       </c>
@@ -2611,6 +3097,21 @@
       <c r="E35" t="s">
         <v>457</v>
       </c>
+      <c r="F35" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G35" t="s">
+        <v>492</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J35" t="s">
+        <v>482</v>
+      </c>
       <c r="K35" s="1" t="s">
         <v>166</v>
       </c>
@@ -2629,6 +3130,21 @@
       <c r="E36" t="s">
         <v>460</v>
       </c>
+      <c r="F36" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G36" t="s">
+        <v>489</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K36" s="1" t="s">
         <v>168</v>
       </c>
@@ -2647,6 +3163,21 @@
       <c r="E37" t="s">
         <v>460</v>
       </c>
+      <c r="F37" t="s">
+        <v>485</v>
+      </c>
+      <c r="G37" t="s">
+        <v>493</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K37" s="1" t="s">
         <v>170</v>
       </c>
@@ -2665,6 +3196,21 @@
       <c r="E38" t="s">
         <v>461</v>
       </c>
+      <c r="F38" t="s">
+        <v>485</v>
+      </c>
+      <c r="G38" t="s">
+        <v>494</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J38" t="s">
+        <v>482</v>
+      </c>
       <c r="K38" s="1" t="s">
         <v>172</v>
       </c>
@@ -2683,6 +3229,21 @@
       <c r="E39" t="s">
         <v>308</v>
       </c>
+      <c r="F39" t="s">
+        <v>485</v>
+      </c>
+      <c r="G39" t="s">
+        <v>490</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K39" s="1" t="s">
         <v>174</v>
       </c>
@@ -2701,6 +3262,21 @@
       <c r="E40" t="s">
         <v>456</v>
       </c>
+      <c r="F40" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G40" t="s">
+        <v>495</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K40" s="1" t="s">
         <v>176</v>
       </c>
@@ -2719,6 +3295,21 @@
       <c r="E41" t="s">
         <v>456</v>
       </c>
+      <c r="F41" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G41" t="s">
+        <v>479</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J41" t="s">
+        <v>482</v>
+      </c>
       <c r="K41" s="1" t="s">
         <v>178</v>
       </c>
@@ -2737,6 +3328,21 @@
       <c r="E42" t="s">
         <v>457</v>
       </c>
+      <c r="F42" t="s">
+        <v>485</v>
+      </c>
+      <c r="G42" t="s">
+        <v>486</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K42" s="1" t="s">
         <v>180</v>
       </c>
@@ -2755,6 +3361,21 @@
       <c r="E43" t="s">
         <v>457</v>
       </c>
+      <c r="F43" t="s">
+        <v>485</v>
+      </c>
+      <c r="G43" t="s">
+        <v>488</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K43" s="1" t="s">
         <v>182</v>
       </c>
@@ -2773,6 +3394,21 @@
       <c r="E44" t="s">
         <v>462</v>
       </c>
+      <c r="F44" t="s">
+        <v>485</v>
+      </c>
+      <c r="G44" t="s">
+        <v>491</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J44" t="s">
+        <v>482</v>
+      </c>
       <c r="K44" s="1" t="s">
         <v>184</v>
       </c>
@@ -2791,6 +3427,21 @@
       <c r="E45" t="s">
         <v>462</v>
       </c>
+      <c r="F45" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G45" t="s">
+        <v>492</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K45" s="1" t="s">
         <v>186</v>
       </c>
@@ -2809,6 +3460,21 @@
       <c r="E46" t="s">
         <v>462</v>
       </c>
+      <c r="F46" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G46" t="s">
+        <v>489</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K46" s="1" t="s">
         <v>188</v>
       </c>
@@ -2827,6 +3493,21 @@
       <c r="E47" t="s">
         <v>316</v>
       </c>
+      <c r="F47" t="s">
+        <v>485</v>
+      </c>
+      <c r="G47" t="s">
+        <v>493</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J47" t="s">
+        <v>482</v>
+      </c>
       <c r="K47" s="1" t="s">
         <v>190</v>
       </c>
@@ -2845,6 +3526,21 @@
       <c r="E48" t="s">
         <v>316</v>
       </c>
+      <c r="F48" t="s">
+        <v>485</v>
+      </c>
+      <c r="G48" t="s">
+        <v>494</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K48" s="1" t="s">
         <v>192</v>
       </c>
@@ -2863,6 +3559,21 @@
       <c r="E49" t="s">
         <v>316</v>
       </c>
+      <c r="F49" t="s">
+        <v>485</v>
+      </c>
+      <c r="G49" t="s">
+        <v>490</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K49" s="1" t="s">
         <v>194</v>
       </c>
@@ -2881,6 +3592,21 @@
       <c r="E50" t="s">
         <v>316</v>
       </c>
+      <c r="F50" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G50" t="s">
+        <v>495</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J50" t="s">
+        <v>482</v>
+      </c>
       <c r="K50" s="1" t="s">
         <v>196</v>
       </c>
@@ -2899,6 +3625,21 @@
       <c r="E51" t="s">
         <v>459</v>
       </c>
+      <c r="F51" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G51" t="s">
+        <v>479</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K51" s="1" t="s">
         <v>198</v>
       </c>
@@ -2917,6 +3658,21 @@
       <c r="E52" t="s">
         <v>459</v>
       </c>
+      <c r="F52" t="s">
+        <v>485</v>
+      </c>
+      <c r="G52" t="s">
+        <v>486</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K52" s="1" t="s">
         <v>200</v>
       </c>
@@ -2935,6 +3691,21 @@
       <c r="E53" t="s">
         <v>456</v>
       </c>
+      <c r="F53" t="s">
+        <v>485</v>
+      </c>
+      <c r="G53" t="s">
+        <v>488</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J53" t="s">
+        <v>482</v>
+      </c>
       <c r="K53" s="1" t="s">
         <v>202</v>
       </c>
@@ -2953,6 +3724,21 @@
       <c r="E54" t="s">
         <v>456</v>
       </c>
+      <c r="F54" t="s">
+        <v>485</v>
+      </c>
+      <c r="G54" t="s">
+        <v>491</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K54" s="1" t="s">
         <v>204</v>
       </c>
@@ -2971,6 +3757,21 @@
       <c r="E55" t="s">
         <v>312</v>
       </c>
+      <c r="F55" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G55" t="s">
+        <v>492</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K55" s="1" t="s">
         <v>206</v>
       </c>
@@ -2989,6 +3790,21 @@
       <c r="E56" t="s">
         <v>312</v>
       </c>
+      <c r="F56" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G56" t="s">
+        <v>489</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J56" t="s">
+        <v>482</v>
+      </c>
       <c r="K56" s="1" t="s">
         <v>208</v>
       </c>
@@ -3007,8 +3823,21 @@
       <c r="E57" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="F57" t="s">
+        <v>485</v>
+      </c>
+      <c r="G57" t="s">
+        <v>493</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K57" s="1" t="s">
         <v>210</v>
       </c>
@@ -3027,6 +3856,21 @@
       <c r="E58" t="s">
         <v>463</v>
       </c>
+      <c r="F58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G58" t="s">
+        <v>494</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K58" s="1" t="s">
         <v>212</v>
       </c>
@@ -3045,6 +3889,21 @@
       <c r="E59" t="s">
         <v>308</v>
       </c>
+      <c r="F59" t="s">
+        <v>485</v>
+      </c>
+      <c r="G59" t="s">
+        <v>490</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J59" t="s">
+        <v>482</v>
+      </c>
       <c r="K59" s="1" t="s">
         <v>214</v>
       </c>
@@ -3063,6 +3922,21 @@
       <c r="E60" t="s">
         <v>308</v>
       </c>
+      <c r="F60" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G60" t="s">
+        <v>495</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K60" s="1" t="s">
         <v>216</v>
       </c>
@@ -3081,6 +3955,21 @@
       <c r="E61" t="s">
         <v>312</v>
       </c>
+      <c r="F61" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G61" t="s">
+        <v>479</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K61" s="1" t="s">
         <v>218</v>
       </c>
@@ -3099,6 +3988,21 @@
       <c r="E62" t="s">
         <v>312</v>
       </c>
+      <c r="F62" t="s">
+        <v>485</v>
+      </c>
+      <c r="G62" t="s">
+        <v>486</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J62" t="s">
+        <v>482</v>
+      </c>
       <c r="K62" s="1" t="s">
         <v>220</v>
       </c>
@@ -3117,6 +4021,21 @@
       <c r="E63" t="s">
         <v>312</v>
       </c>
+      <c r="F63" t="s">
+        <v>485</v>
+      </c>
+      <c r="G63" t="s">
+        <v>488</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K63" s="1" t="s">
         <v>222</v>
       </c>
@@ -3135,8 +4054,21 @@
       <c r="E64" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="F64" t="s">
+        <v>485</v>
+      </c>
+      <c r="G64" t="s">
+        <v>491</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K64" s="1" t="s">
         <v>224</v>
       </c>
@@ -3155,8 +4087,21 @@
       <c r="E65" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="F65" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G65" t="s">
+        <v>492</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J65" t="s">
+        <v>482</v>
+      </c>
       <c r="K65" s="1" t="s">
         <v>226</v>
       </c>
@@ -3175,8 +4120,21 @@
       <c r="E66" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="F66" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G66" t="s">
+        <v>489</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K66" s="1" t="s">
         <v>228</v>
       </c>
@@ -3195,6 +4153,21 @@
       <c r="E67" t="s">
         <v>463</v>
       </c>
+      <c r="F67" t="s">
+        <v>485</v>
+      </c>
+      <c r="G67" t="s">
+        <v>493</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K67" s="1" t="s">
         <v>230</v>
       </c>
@@ -3213,6 +4186,21 @@
       <c r="E68" t="s">
         <v>463</v>
       </c>
+      <c r="F68" t="s">
+        <v>485</v>
+      </c>
+      <c r="G68" t="s">
+        <v>494</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J68" t="s">
+        <v>482</v>
+      </c>
       <c r="K68" s="1" t="s">
         <v>232</v>
       </c>
@@ -3231,6 +4219,21 @@
       <c r="E69" t="s">
         <v>463</v>
       </c>
+      <c r="F69" t="s">
+        <v>485</v>
+      </c>
+      <c r="G69" t="s">
+        <v>490</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K69" s="1" t="s">
         <v>234</v>
       </c>
@@ -3249,6 +4252,21 @@
       <c r="E70" t="s">
         <v>462</v>
       </c>
+      <c r="F70" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G70" t="s">
+        <v>495</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K70" s="1" t="s">
         <v>236</v>
       </c>
@@ -3267,6 +4285,21 @@
       <c r="E71" t="s">
         <v>462</v>
       </c>
+      <c r="F71" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G71" t="s">
+        <v>479</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J71" t="s">
+        <v>482</v>
+      </c>
       <c r="K71" s="1" t="s">
         <v>238</v>
       </c>
@@ -3285,6 +4318,21 @@
       <c r="E72" t="s">
         <v>462</v>
       </c>
+      <c r="F72" t="s">
+        <v>485</v>
+      </c>
+      <c r="G72" t="s">
+        <v>486</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K72" s="1" t="s">
         <v>240</v>
       </c>
@@ -3303,6 +4351,21 @@
       <c r="E73" t="s">
         <v>312</v>
       </c>
+      <c r="F73" t="s">
+        <v>485</v>
+      </c>
+      <c r="G73" t="s">
+        <v>488</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K73" s="1" t="s">
         <v>242</v>
       </c>
@@ -3321,6 +4384,21 @@
       <c r="E74" t="s">
         <v>312</v>
       </c>
+      <c r="F74" t="s">
+        <v>485</v>
+      </c>
+      <c r="G74" t="s">
+        <v>491</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J74" t="s">
+        <v>482</v>
+      </c>
       <c r="K74" s="1" t="s">
         <v>244</v>
       </c>
@@ -3339,8 +4417,21 @@
       <c r="E75" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="F75" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G75" t="s">
+        <v>492</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K75" s="1" t="s">
         <v>246</v>
       </c>
@@ -3359,8 +4450,21 @@
       <c r="E76" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="F76" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G76" t="s">
+        <v>489</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K76" s="1" t="s">
         <v>248</v>
       </c>
@@ -3379,8 +4483,21 @@
       <c r="E77" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="F77" t="s">
+        <v>485</v>
+      </c>
+      <c r="G77" t="s">
+        <v>493</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J77" t="s">
+        <v>482</v>
+      </c>
       <c r="K77" s="1" t="s">
         <v>250</v>
       </c>
@@ -3399,8 +4516,21 @@
       <c r="E78" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="F78" t="s">
+        <v>485</v>
+      </c>
+      <c r="G78" t="s">
+        <v>494</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K78" s="1" t="s">
         <v>252</v>
       </c>
@@ -3419,6 +4549,21 @@
       <c r="E79" t="s">
         <v>308</v>
       </c>
+      <c r="F79" t="s">
+        <v>485</v>
+      </c>
+      <c r="G79" t="s">
+        <v>490</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K79" s="1" t="s">
         <v>254</v>
       </c>
@@ -3437,6 +4582,21 @@
       <c r="E80" t="s">
         <v>312</v>
       </c>
+      <c r="F80" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G80" t="s">
+        <v>495</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J80" t="s">
+        <v>482</v>
+      </c>
       <c r="K80" s="1" t="s">
         <v>256</v>
       </c>
@@ -3455,6 +4615,21 @@
       <c r="E81" t="s">
         <v>312</v>
       </c>
+      <c r="F81" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G81" t="s">
+        <v>479</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K81" s="1" t="s">
         <v>258</v>
       </c>
@@ -3473,6 +4648,21 @@
       <c r="E82" t="s">
         <v>458</v>
       </c>
+      <c r="F82" t="s">
+        <v>485</v>
+      </c>
+      <c r="G82" t="s">
+        <v>486</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K82" s="1" t="s">
         <v>260</v>
       </c>
@@ -3491,6 +4681,21 @@
       <c r="E83" t="s">
         <v>458</v>
       </c>
+      <c r="F83" t="s">
+        <v>485</v>
+      </c>
+      <c r="G83" t="s">
+        <v>488</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J83" t="s">
+        <v>482</v>
+      </c>
       <c r="K83" s="1" t="s">
         <v>262</v>
       </c>
@@ -3509,6 +4714,21 @@
       <c r="E84" t="s">
         <v>456</v>
       </c>
+      <c r="F84" t="s">
+        <v>485</v>
+      </c>
+      <c r="G84" t="s">
+        <v>491</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K84" s="1" t="s">
         <v>264</v>
       </c>
@@ -3527,6 +4747,21 @@
       <c r="E85" t="s">
         <v>456</v>
       </c>
+      <c r="F85" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G85" t="s">
+        <v>492</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K85" s="1" t="s">
         <v>266</v>
       </c>
@@ -3545,6 +4780,21 @@
       <c r="E86" t="s">
         <v>456</v>
       </c>
+      <c r="F86" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G86" t="s">
+        <v>489</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J86" t="s">
+        <v>482</v>
+      </c>
       <c r="K86" s="1" t="s">
         <v>268</v>
       </c>
@@ -3563,6 +4813,21 @@
       <c r="E87" t="s">
         <v>312</v>
       </c>
+      <c r="F87" t="s">
+        <v>485</v>
+      </c>
+      <c r="G87" t="s">
+        <v>493</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K87" s="1" t="s">
         <v>270</v>
       </c>
@@ -3581,6 +4846,21 @@
       <c r="E88" t="s">
         <v>312</v>
       </c>
+      <c r="F88" t="s">
+        <v>485</v>
+      </c>
+      <c r="G88" t="s">
+        <v>494</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K88" s="1" t="s">
         <v>272</v>
       </c>
@@ -3599,6 +4879,21 @@
       <c r="E89" t="s">
         <v>457</v>
       </c>
+      <c r="F89" t="s">
+        <v>485</v>
+      </c>
+      <c r="G89" t="s">
+        <v>490</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J89" t="s">
+        <v>482</v>
+      </c>
       <c r="K89" s="1" t="s">
         <v>274</v>
       </c>
@@ -3617,6 +4912,21 @@
       <c r="E90" t="s">
         <v>457</v>
       </c>
+      <c r="F90" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G90" t="s">
+        <v>495</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K90" s="1" t="s">
         <v>276</v>
       </c>
@@ -3635,6 +4945,21 @@
       <c r="E91" t="s">
         <v>312</v>
       </c>
+      <c r="F91" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G91" t="s">
+        <v>479</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K91" s="1" t="s">
         <v>278</v>
       </c>
@@ -3653,6 +4978,21 @@
       <c r="E92" t="s">
         <v>312</v>
       </c>
+      <c r="F92" t="s">
+        <v>485</v>
+      </c>
+      <c r="G92" t="s">
+        <v>486</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J92" t="s">
+        <v>482</v>
+      </c>
       <c r="K92" s="1" t="s">
         <v>280</v>
       </c>
@@ -3671,8 +5011,21 @@
       <c r="E93" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+      <c r="F93" t="s">
+        <v>485</v>
+      </c>
+      <c r="G93" t="s">
+        <v>488</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K93" s="1" t="s">
         <v>282</v>
       </c>
@@ -3691,8 +5044,21 @@
       <c r="E94" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="F94" t="s">
+        <v>485</v>
+      </c>
+      <c r="G94" t="s">
+        <v>491</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K94" s="1" t="s">
         <v>284</v>
       </c>
@@ -3711,8 +5077,21 @@
       <c r="E95" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="F95" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G95" t="s">
+        <v>492</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J95" t="s">
+        <v>482</v>
+      </c>
       <c r="K95" s="1" t="s">
         <v>286</v>
       </c>
@@ -3731,8 +5110,21 @@
       <c r="E96" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="F96" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G96" t="s">
+        <v>489</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K96" s="1" t="s">
         <v>288</v>
       </c>
@@ -3751,8 +5143,21 @@
       <c r="E97" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="F97" t="s">
+        <v>485</v>
+      </c>
+      <c r="G97" t="s">
+        <v>493</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K97" s="1" t="s">
         <v>290</v>
       </c>
@@ -3771,6 +5176,21 @@
       <c r="E98" t="s">
         <v>464</v>
       </c>
+      <c r="F98" t="s">
+        <v>485</v>
+      </c>
+      <c r="G98" t="s">
+        <v>494</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J98" t="s">
+        <v>482</v>
+      </c>
       <c r="K98" s="1" t="s">
         <v>292</v>
       </c>
@@ -3789,6 +5209,21 @@
       <c r="E99" t="s">
         <v>312</v>
       </c>
+      <c r="F99" t="s">
+        <v>485</v>
+      </c>
+      <c r="G99" t="s">
+        <v>490</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K99" s="1" t="s">
         <v>294</v>
       </c>
@@ -3807,6 +5242,21 @@
       <c r="E100" t="s">
         <v>312</v>
       </c>
+      <c r="F100" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G100" t="s">
+        <v>495</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K100" s="1" t="s">
         <v>296</v>
       </c>
@@ -3825,6 +5275,21 @@
       <c r="E101" t="s">
         <v>458</v>
       </c>
+      <c r="F101" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G101" t="s">
+        <v>479</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J101" t="s">
+        <v>482</v>
+      </c>
       <c r="K101" s="1" t="s">
         <v>20</v>
       </c>
@@ -3843,6 +5308,21 @@
       <c r="E102" t="s">
         <v>458</v>
       </c>
+      <c r="F102" t="s">
+        <v>485</v>
+      </c>
+      <c r="G102" t="s">
+        <v>486</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K102" s="1" t="s">
         <v>22</v>
       </c>
@@ -3861,6 +5341,21 @@
       <c r="E103" t="s">
         <v>462</v>
       </c>
+      <c r="F103" t="s">
+        <v>485</v>
+      </c>
+      <c r="G103" t="s">
+        <v>488</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K103" s="1" t="s">
         <v>24</v>
       </c>
@@ -3879,6 +5374,21 @@
       <c r="E104" t="s">
         <v>462</v>
       </c>
+      <c r="F104" t="s">
+        <v>485</v>
+      </c>
+      <c r="G104" t="s">
+        <v>491</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J104" t="s">
+        <v>482</v>
+      </c>
       <c r="K104" s="1" t="s">
         <v>26</v>
       </c>
@@ -3897,6 +5407,21 @@
       <c r="E105" t="s">
         <v>459</v>
       </c>
+      <c r="F105" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G105" t="s">
+        <v>492</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K105" s="1" t="s">
         <v>28</v>
       </c>
@@ -3915,6 +5440,21 @@
       <c r="E106" t="s">
         <v>459</v>
       </c>
+      <c r="F106" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G106" t="s">
+        <v>489</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K106" s="1" t="s">
         <v>30</v>
       </c>
@@ -3933,6 +5473,21 @@
       <c r="E107" t="s">
         <v>463</v>
       </c>
+      <c r="F107" t="s">
+        <v>485</v>
+      </c>
+      <c r="G107" t="s">
+        <v>493</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J107" t="s">
+        <v>482</v>
+      </c>
       <c r="K107" s="1" t="s">
         <v>32</v>
       </c>
@@ -3951,6 +5506,21 @@
       <c r="E108" t="s">
         <v>463</v>
       </c>
+      <c r="F108" t="s">
+        <v>485</v>
+      </c>
+      <c r="G108" t="s">
+        <v>494</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K108" s="1" t="s">
         <v>34</v>
       </c>
@@ -3969,6 +5539,21 @@
       <c r="E109" t="s">
         <v>456</v>
       </c>
+      <c r="F109" t="s">
+        <v>485</v>
+      </c>
+      <c r="G109" t="s">
+        <v>490</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K109" s="1" t="s">
         <v>36</v>
       </c>
@@ -3987,6 +5572,21 @@
       <c r="E110" t="s">
         <v>457</v>
       </c>
+      <c r="F110" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G110" t="s">
+        <v>495</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J110" t="s">
+        <v>482</v>
+      </c>
       <c r="K110" s="1" t="s">
         <v>38</v>
       </c>
@@ -4005,6 +5605,21 @@
       <c r="E111" t="s">
         <v>457</v>
       </c>
+      <c r="F111" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G111" t="s">
+        <v>479</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K111" s="1" t="s">
         <v>42</v>
       </c>
@@ -4023,6 +5638,21 @@
       <c r="E112" t="s">
         <v>459</v>
       </c>
+      <c r="F112" t="s">
+        <v>485</v>
+      </c>
+      <c r="G112" t="s">
+        <v>486</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K112" s="1" t="s">
         <v>44</v>
       </c>
@@ -4041,6 +5671,21 @@
       <c r="E113" t="s">
         <v>459</v>
       </c>
+      <c r="F113" t="s">
+        <v>485</v>
+      </c>
+      <c r="G113" t="s">
+        <v>488</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J113" t="s">
+        <v>482</v>
+      </c>
       <c r="K113" s="1" t="s">
         <v>46</v>
       </c>
@@ -4059,6 +5704,21 @@
       <c r="E114" t="s">
         <v>456</v>
       </c>
+      <c r="F114" t="s">
+        <v>485</v>
+      </c>
+      <c r="G114" t="s">
+        <v>491</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K114" s="1" t="s">
         <v>48</v>
       </c>
@@ -4077,6 +5737,21 @@
       <c r="E115" t="s">
         <v>462</v>
       </c>
+      <c r="F115" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G115" t="s">
+        <v>492</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K115" s="1" t="s">
         <v>50</v>
       </c>
@@ -4095,6 +5770,21 @@
       <c r="E116" t="s">
         <v>456</v>
       </c>
+      <c r="F116" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G116" t="s">
+        <v>489</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J116" t="s">
+        <v>482</v>
+      </c>
       <c r="K116" s="1" t="s">
         <v>52</v>
       </c>
@@ -4113,6 +5803,21 @@
       <c r="E117" t="s">
         <v>312</v>
       </c>
+      <c r="F117" t="s">
+        <v>485</v>
+      </c>
+      <c r="G117" t="s">
+        <v>493</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K117" s="1" t="s">
         <v>54</v>
       </c>
@@ -4131,6 +5836,21 @@
       <c r="E118" t="s">
         <v>312</v>
       </c>
+      <c r="F118" t="s">
+        <v>485</v>
+      </c>
+      <c r="G118" t="s">
+        <v>494</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K118" s="1" t="s">
         <v>56</v>
       </c>
@@ -4149,6 +5869,21 @@
       <c r="E119" t="s">
         <v>312</v>
       </c>
+      <c r="F119" t="s">
+        <v>485</v>
+      </c>
+      <c r="G119" t="s">
+        <v>490</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J119" t="s">
+        <v>482</v>
+      </c>
       <c r="K119" s="1" t="s">
         <v>58</v>
       </c>
@@ -4167,6 +5902,21 @@
       <c r="E120" t="s">
         <v>312</v>
       </c>
+      <c r="F120" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G120" t="s">
+        <v>495</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K120" s="1" t="s">
         <v>60</v>
       </c>
@@ -4185,6 +5935,21 @@
       <c r="E121" t="s">
         <v>312</v>
       </c>
+      <c r="F121" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G121" t="s">
+        <v>479</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K121" s="1" t="s">
         <v>64</v>
       </c>
@@ -4203,6 +5968,21 @@
       <c r="E122" t="s">
         <v>312</v>
       </c>
+      <c r="F122" t="s">
+        <v>485</v>
+      </c>
+      <c r="G122" t="s">
+        <v>486</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J122" t="s">
+        <v>482</v>
+      </c>
       <c r="K122" s="1" t="s">
         <v>66</v>
       </c>
@@ -4221,6 +6001,21 @@
       <c r="E123" t="s">
         <v>464</v>
       </c>
+      <c r="F123" t="s">
+        <v>485</v>
+      </c>
+      <c r="G123" t="s">
+        <v>488</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K123" s="1" t="s">
         <v>68</v>
       </c>
@@ -4239,6 +6034,21 @@
       <c r="E124" t="s">
         <v>316</v>
       </c>
+      <c r="F124" t="s">
+        <v>485</v>
+      </c>
+      <c r="G124" t="s">
+        <v>491</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K124" s="1" t="s">
         <v>70</v>
       </c>
@@ -4257,6 +6067,21 @@
       <c r="E125" t="s">
         <v>466</v>
       </c>
+      <c r="F125" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G125" t="s">
+        <v>492</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J125" t="s">
+        <v>482</v>
+      </c>
       <c r="K125" s="1" t="s">
         <v>72</v>
       </c>
@@ -4275,6 +6100,21 @@
       <c r="E126" t="s">
         <v>458</v>
       </c>
+      <c r="F126" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G126" t="s">
+        <v>489</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K126" s="1" t="s">
         <v>74</v>
       </c>
@@ -4293,6 +6133,21 @@
       <c r="E127" t="s">
         <v>308</v>
       </c>
+      <c r="F127" t="s">
+        <v>485</v>
+      </c>
+      <c r="G127" t="s">
+        <v>493</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K127" s="1" t="s">
         <v>76</v>
       </c>
@@ -4311,6 +6166,21 @@
       <c r="E128" t="s">
         <v>316</v>
       </c>
+      <c r="F128" t="s">
+        <v>485</v>
+      </c>
+      <c r="G128" t="s">
+        <v>494</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J128" t="s">
+        <v>482</v>
+      </c>
       <c r="K128" s="1" t="s">
         <v>78</v>
       </c>
@@ -4329,6 +6199,21 @@
       <c r="E129" t="s">
         <v>456</v>
       </c>
+      <c r="F129" t="s">
+        <v>485</v>
+      </c>
+      <c r="G129" t="s">
+        <v>490</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K129" s="1" t="s">
         <v>80</v>
       </c>
@@ -4347,6 +6232,21 @@
       <c r="E130" t="s">
         <v>312</v>
       </c>
+      <c r="F130" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G130" t="s">
+        <v>495</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K130" s="1" t="s">
         <v>82</v>
       </c>
@@ -4365,6 +6265,21 @@
       <c r="E131" t="s">
         <v>312</v>
       </c>
+      <c r="F131" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G131" t="s">
+        <v>479</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J131" t="s">
+        <v>482</v>
+      </c>
       <c r="K131" s="1" t="s">
         <v>86</v>
       </c>
@@ -4383,6 +6298,21 @@
       <c r="E132" t="s">
         <v>312</v>
       </c>
+      <c r="F132" t="s">
+        <v>485</v>
+      </c>
+      <c r="G132" t="s">
+        <v>486</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K132" s="1" t="s">
         <v>88</v>
       </c>
@@ -4401,6 +6331,21 @@
       <c r="E133" t="s">
         <v>456</v>
       </c>
+      <c r="F133" t="s">
+        <v>485</v>
+      </c>
+      <c r="G133" t="s">
+        <v>488</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K133" s="1" t="s">
         <v>90</v>
       </c>
@@ -4419,6 +6364,21 @@
       <c r="E134" t="s">
         <v>456</v>
       </c>
+      <c r="F134" t="s">
+        <v>485</v>
+      </c>
+      <c r="G134" t="s">
+        <v>491</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J134" t="s">
+        <v>482</v>
+      </c>
       <c r="K134" s="1" t="s">
         <v>92</v>
       </c>
@@ -4437,6 +6397,21 @@
       <c r="E135" t="s">
         <v>312</v>
       </c>
+      <c r="F135" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G135" t="s">
+        <v>492</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K135" s="1" t="s">
         <v>94</v>
       </c>
@@ -4455,6 +6430,21 @@
       <c r="E136" t="s">
         <v>458</v>
       </c>
+      <c r="F136" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G136" t="s">
+        <v>489</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K136" s="1" t="s">
         <v>96</v>
       </c>
@@ -4473,6 +6463,21 @@
       <c r="E137" t="s">
         <v>308</v>
       </c>
+      <c r="F137" t="s">
+        <v>485</v>
+      </c>
+      <c r="G137" t="s">
+        <v>493</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J137" t="s">
+        <v>482</v>
+      </c>
       <c r="K137" s="1" t="s">
         <v>98</v>
       </c>
@@ -4491,6 +6496,21 @@
       <c r="E138" t="s">
         <v>456</v>
       </c>
+      <c r="F138" t="s">
+        <v>485</v>
+      </c>
+      <c r="G138" t="s">
+        <v>494</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K138" s="1" t="s">
         <v>100</v>
       </c>
@@ -4509,8 +6529,21 @@
       <c r="E139" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
+      <c r="F139" t="s">
+        <v>485</v>
+      </c>
+      <c r="G139" t="s">
+        <v>490</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K139" s="1" t="s">
         <v>102</v>
       </c>
@@ -4529,8 +6562,21 @@
       <c r="E140" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
+      <c r="F140" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G140" t="s">
+        <v>495</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J140" t="s">
+        <v>482</v>
+      </c>
       <c r="K140" s="1" t="s">
         <v>104</v>
       </c>
@@ -4549,8 +6595,21 @@
       <c r="E141" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
+      <c r="F141" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G141" t="s">
+        <v>479</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K141" s="1" t="s">
         <v>108</v>
       </c>
@@ -4569,8 +6628,21 @@
       <c r="E142" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
+      <c r="F142" t="s">
+        <v>485</v>
+      </c>
+      <c r="G142" t="s">
+        <v>486</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K142" s="1" t="s">
         <v>110</v>
       </c>
@@ -4589,8 +6661,21 @@
       <c r="E143" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
+      <c r="F143" t="s">
+        <v>485</v>
+      </c>
+      <c r="G143" t="s">
+        <v>488</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J143" t="s">
+        <v>482</v>
+      </c>
       <c r="K143" s="1" t="s">
         <v>114</v>
       </c>
@@ -4609,6 +6694,21 @@
       <c r="E144" t="s">
         <v>456</v>
       </c>
+      <c r="F144" t="s">
+        <v>485</v>
+      </c>
+      <c r="G144" t="s">
+        <v>491</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K144" s="1" t="s">
         <v>116</v>
       </c>
@@ -4627,8 +6727,21 @@
       <c r="E145" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
+      <c r="F145" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G145" t="s">
+        <v>492</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K145" s="1" t="s">
         <v>112</v>
       </c>
@@ -4647,6 +6760,21 @@
       <c r="E146" t="s">
         <v>458</v>
       </c>
+      <c r="F146" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G146" t="s">
+        <v>489</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K146" s="1" t="s">
         <v>118</v>
       </c>
@@ -4665,6 +6793,21 @@
       <c r="E147" t="s">
         <v>308</v>
       </c>
+      <c r="F147" t="s">
+        <v>485</v>
+      </c>
+      <c r="G147" t="s">
+        <v>493</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K147" s="1" t="s">
         <v>120</v>
       </c>
@@ -4683,6 +6826,21 @@
       <c r="E148" t="s">
         <v>467</v>
       </c>
+      <c r="F148" t="s">
+        <v>485</v>
+      </c>
+      <c r="G148" t="s">
+        <v>494</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J148" t="s">
+        <v>482</v>
+      </c>
       <c r="K148" s="1" t="s">
         <v>122</v>
       </c>
@@ -4701,6 +6859,21 @@
       <c r="E149" t="s">
         <v>467</v>
       </c>
+      <c r="F149" t="s">
+        <v>485</v>
+      </c>
+      <c r="G149" t="s">
+        <v>490</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J149" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="K149" s="1" t="s">
         <v>124</v>
       </c>
@@ -4719,12 +6892,45 @@
       <c r="E150" t="s">
         <v>467</v>
       </c>
+      <c r="F150" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G150" t="s">
+        <v>495</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K150" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L150">
         <v>149</v>
       </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="F151" s="10"/>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="F155" s="10"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="F156" s="10"/>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="F160" s="10"/>
+    </row>
+    <row r="161" spans="6:7">
+      <c r="F161" s="10"/>
+    </row>
+    <row r="165" spans="6:7">
+      <c r="G165" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="L1:L150" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -4732,11 +6938,61 @@
       <sortCondition ref="L1:L150"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{CEC63339-1F2B-4A8F-B189-57F68CFCA443}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{05CD7D15-5FFD-48B0-8F35-43E716805B50}"/>
+    <hyperlink ref="J6" r:id="rId3" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{62232FD7-363A-4666-9524-959F2CC89315}"/>
+    <hyperlink ref="J9" r:id="rId4" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{CBA07DF4-7538-43BA-AA79-59183C39A72F}"/>
+    <hyperlink ref="J12" r:id="rId5" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{2FE75C9F-44DC-4976-BEB1-614CF5286D42}"/>
+    <hyperlink ref="J15" r:id="rId6" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{5A039D24-0009-426B-8B4C-55428D9EA9C8}"/>
+    <hyperlink ref="J18" r:id="rId7" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{48C81E81-26A7-4DC9-A6E8-9A708E2949E2}"/>
+    <hyperlink ref="J21" r:id="rId8" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{CA70272C-B275-4FA1-9EDF-1728F07E896C}"/>
+    <hyperlink ref="J24" r:id="rId9" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{D1E2DCD6-5B8C-4C1D-AF1D-FB170A1D7705}"/>
+    <hyperlink ref="J27" r:id="rId10" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{E33E7EAA-9FE8-4FA7-9715-BDBDB7819B25}"/>
+    <hyperlink ref="J30" r:id="rId11" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{694948AC-2496-4BAE-B606-EF6470DB1764}"/>
+    <hyperlink ref="J33" r:id="rId12" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{23708B6E-1F12-4B08-9AD7-E64D83D51A27}"/>
+    <hyperlink ref="J36" r:id="rId13" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{359C6F7D-3F68-43EA-9443-2FE0A52E4D29}"/>
+    <hyperlink ref="J39" r:id="rId14" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{FCAECA33-6655-4612-80FA-FD244A07A014}"/>
+    <hyperlink ref="J42" r:id="rId15" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{6C436300-3184-4FE3-A8B5-2D9A8369D124}"/>
+    <hyperlink ref="J45" r:id="rId16" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{A9858C74-5994-4C03-A119-8704194C9D48}"/>
+    <hyperlink ref="J48" r:id="rId17" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{36A900AE-39CF-431E-B514-7CDF0C29FA48}"/>
+    <hyperlink ref="J51" r:id="rId18" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{468416B5-3579-41EE-8E28-AFBC6D12542E}"/>
+    <hyperlink ref="J54" r:id="rId19" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{1C20BA26-0347-4405-A78C-E254B9B1B16A}"/>
+    <hyperlink ref="J57" r:id="rId20" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{81488C0B-5357-44FA-8658-8660C6B28605}"/>
+    <hyperlink ref="J60" r:id="rId21" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{30B452F3-1B92-41B9-AA36-95E8892992E8}"/>
+    <hyperlink ref="J63" r:id="rId22" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{7D1BD24E-2AC1-451B-B009-4FC51142FAA8}"/>
+    <hyperlink ref="J66" r:id="rId23" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{DFFCF3F7-E872-42A2-AA36-93E35067512D}"/>
+    <hyperlink ref="J69" r:id="rId24" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{2DD7582C-78D3-4F92-BFBC-414B0EB49BFD}"/>
+    <hyperlink ref="J72" r:id="rId25" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{0A2838DD-E09C-4EFD-8531-D3AB05FBFC84}"/>
+    <hyperlink ref="J75" r:id="rId26" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{6CCE1B7D-FCD2-4269-976C-BFE64B8A0EBF}"/>
+    <hyperlink ref="J78" r:id="rId27" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{58CD428A-B80B-4D32-A22F-01F34AB336C1}"/>
+    <hyperlink ref="J81" r:id="rId28" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{248BD9A9-A06F-4D7D-9A70-33C74443C521}"/>
+    <hyperlink ref="J84" r:id="rId29" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{FF15A5F4-E8A3-4AB0-B789-C6E2D833A80D}"/>
+    <hyperlink ref="J87" r:id="rId30" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{9461CB6B-2260-471F-B198-38A3A3085760}"/>
+    <hyperlink ref="J90" r:id="rId31" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{564108FB-4B90-4840-8DB4-64A0A913FC61}"/>
+    <hyperlink ref="J93" r:id="rId32" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{622D0B6C-5E0E-40AF-B92C-0296F0EE3EF2}"/>
+    <hyperlink ref="J96" r:id="rId33" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{C2A43417-7562-4515-BA4B-30ADBCCC1045}"/>
+    <hyperlink ref="J99" r:id="rId34" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{5D1D6C41-A1BB-4A8B-9C9E-C36CE01B3C67}"/>
+    <hyperlink ref="J102" r:id="rId35" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{C0C7D424-B713-4413-8350-52D8E8E1A9B3}"/>
+    <hyperlink ref="J105" r:id="rId36" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{A1DAD3E2-AB7D-40B4-B23C-21ABAAEEC42C}"/>
+    <hyperlink ref="J108" r:id="rId37" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{C39B313D-DA81-4B08-92E4-036BF8C2EA72}"/>
+    <hyperlink ref="J111" r:id="rId38" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{DB101425-AA1D-411F-B3A4-DF944C1873F1}"/>
+    <hyperlink ref="J114" r:id="rId39" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{9BF379A6-674B-4FC2-8410-F956129CA108}"/>
+    <hyperlink ref="J117" r:id="rId40" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{B7DF5239-7CBB-4D59-8350-E2B1E5C8FB49}"/>
+    <hyperlink ref="J120" r:id="rId41" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{CA7F446A-F3FD-4CDA-986A-3C94A490DA67}"/>
+    <hyperlink ref="J123" r:id="rId42" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{D46E7D7C-949F-4B48-A997-DAC248DB3097}"/>
+    <hyperlink ref="J126" r:id="rId43" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{CEB5A490-D028-4238-80D8-6A1BC7D51BE5}"/>
+    <hyperlink ref="J129" r:id="rId44" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{C39D898F-96A0-4DB9-BDB3-4726566CBC97}"/>
+    <hyperlink ref="J132" r:id="rId45" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{B791DAA8-0026-4428-8BFC-59307C88C2C2}"/>
+    <hyperlink ref="J135" r:id="rId46" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{223C2871-DCA4-47FE-859C-451087F42FD0}"/>
+    <hyperlink ref="J138" r:id="rId47" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{F6A7CE56-12F4-4163-A1C9-5AECA22DB1FE}"/>
+    <hyperlink ref="J141" r:id="rId48" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{E55975FE-B7DD-43C7-98FE-C5013AD43789}"/>
+    <hyperlink ref="J144" r:id="rId49" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{53B33326-6AC9-4DDA-BD7F-002456DF4232}"/>
+    <hyperlink ref="J146" r:id="rId50" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{1DD8F015-3B0B-4FBD-A647-492446EF84BE}"/>
+    <hyperlink ref="J149" r:id="rId51" tooltip="Bulbasaur" display="https://pokemon.fandom.com/wiki/Bulbasaur" xr:uid="{2D8DCDFD-4FF7-4741-B721-E80256734AA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId52"/>
 </worksheet>
 </file>